--- a/tests/Sort-Benchmark/sort.xlsx
+++ b/tests/Sort-Benchmark/sort.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\winte\source\repos\AssignmentVault\acl\tests\Sort\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\winte\source\repos\AssignmentVault\acl\tests\Sort-Benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -142,9 +142,12 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -173,9 +176,12 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -196,19 +202,13 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:alpha val="50000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
-                <a:schemeClr val="accent1"/>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -554,8 +554,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:alpha val="25000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -569,10 +570,11 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:alpha val="25000"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -584,9 +586,12 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -611,8 +616,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:alpha val="25000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -626,8 +632,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -638,7 +650,10 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -666,11 +681,14 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="accent1"/>
+      <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="accent1"/>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -715,9 +733,12 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -746,9 +767,12 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -769,19 +793,13 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:alpha val="50000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
-                <a:schemeClr val="accent1"/>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -1127,8 +1145,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:alpha val="25000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1142,10 +1161,11 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:alpha val="25000"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1157,9 +1177,12 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1184,8 +1207,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:alpha val="25000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1199,8 +1223,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1211,7 +1241,10 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1239,11 +1272,14 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="accent1"/>
+      <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="accent1"/>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -1288,9 +1324,12 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1319,9 +1358,12 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1342,19 +1384,13 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:alpha val="50000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
-                <a:schemeClr val="accent1"/>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -1700,8 +1736,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:alpha val="25000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1715,10 +1752,11 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:alpha val="25000"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1730,9 +1768,12 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1757,8 +1798,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:alpha val="25000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1772,8 +1814,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1784,7 +1832,10 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1812,11 +1863,14 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="accent1"/>
+      <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="accent1"/>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -1875,19 +1929,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:alpha val="50000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
-                <a:schemeClr val="accent1"/>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -2226,19 +2274,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:alpha val="50000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
-                <a:schemeClr val="accent2"/>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -2577,19 +2619,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:alpha val="50000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
-                <a:schemeClr val="accent3"/>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -2935,8 +2971,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:alpha val="25000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -2950,10 +2987,11 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:alpha val="25000"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -2965,9 +3003,12 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2992,8 +3033,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:alpha val="25000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -3007,8 +3049,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -3019,7 +3067,10 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -3047,11 +3098,14 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="accent1"/>
+      <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="accent1"/>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -3236,55 +3290,59 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="247">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="25000"/>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" b="0" kern="1200" spc="100" baseline="0"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="phClr"/>
+        <a:schemeClr val="bg1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -3296,18 +3354,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <cs:styleClr val="auto"/>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -3315,7 +3377,10 @@
       </a:solidFill>
       <a:ln>
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
@@ -3326,93 +3391,62 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="ltUpDiag">
-        <a:fgClr>
-          <a:schemeClr val="phClr"/>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="lt1"/>
-        </a:bgClr>
-      </a:pattFill>
-    </cs:spPr>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="ltUpDiag">
-        <a:fgClr>
-          <a:schemeClr val="phClr"/>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="lt1"/>
-        </a:bgClr>
-      </a:pattFill>
-    </cs:spPr>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
-      <a:effectLst>
-        <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
-          <a:schemeClr val="phClr"/>
-        </a:outerShdw>
-      </a:effectLst>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="22225">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:round/>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -3432,104 +3466,90 @@
     </cs:spPr>
   </cs:dataPointWireframe>
   <cs:dataTable>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataTable>
   <cs:downBar>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="35000"/>
-          <a:lumOff val="65000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
   <cs:dropLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="79000">
-              <a:schemeClr val="phClr"/>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1">
-                <a:alpha val="60000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
   <cs:errorBar>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
-      <a:effectLst>
-        <a:glow rad="25400">
-          <a:schemeClr val="lt1"/>
-        </a:glow>
-      </a:effectLst>
     </cs:spPr>
   </cs:errorBar>
   <cs:floor>
@@ -3537,23 +3557,28 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="25000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3561,62 +3586,59 @@
     </cs:spPr>
   </cs:gridlineMajor>
   <cs:gridlineMinor>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="10000"/>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
   <cs:hiLoLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
   <cs:leaderLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -3625,67 +3647,57 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-            <a:tint val="50000"/>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -3694,25 +3706,28 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1500" b="1" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -3721,32 +3736,32 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="95000"/>
-        </a:schemeClr>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3755,8 +3770,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -3764,62 +3793,72 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="247">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="25000"/>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" b="0" kern="1200" spc="100" baseline="0"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="phClr"/>
+        <a:schemeClr val="bg1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -3831,18 +3870,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <cs:styleClr val="auto"/>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -3850,7 +3893,10 @@
       </a:solidFill>
       <a:ln>
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
@@ -3861,93 +3907,62 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="ltUpDiag">
-        <a:fgClr>
-          <a:schemeClr val="phClr"/>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="lt1"/>
-        </a:bgClr>
-      </a:pattFill>
-    </cs:spPr>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="ltUpDiag">
-        <a:fgClr>
-          <a:schemeClr val="phClr"/>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="lt1"/>
-        </a:bgClr>
-      </a:pattFill>
-    </cs:spPr>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
-      <a:effectLst>
-        <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
-          <a:schemeClr val="phClr"/>
-        </a:outerShdw>
-      </a:effectLst>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="22225">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:round/>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -3967,104 +3982,90 @@
     </cs:spPr>
   </cs:dataPointWireframe>
   <cs:dataTable>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataTable>
   <cs:downBar>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="35000"/>
-          <a:lumOff val="65000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
   <cs:dropLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="79000">
-              <a:schemeClr val="phClr"/>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1">
-                <a:alpha val="60000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
   <cs:errorBar>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
-      <a:effectLst>
-        <a:glow rad="25400">
-          <a:schemeClr val="lt1"/>
-        </a:glow>
-      </a:effectLst>
     </cs:spPr>
   </cs:errorBar>
   <cs:floor>
@@ -4072,23 +4073,28 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="25000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4096,62 +4102,59 @@
     </cs:spPr>
   </cs:gridlineMajor>
   <cs:gridlineMinor>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="10000"/>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
   <cs:hiLoLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
   <cs:leaderLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -4160,67 +4163,57 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-            <a:tint val="50000"/>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -4229,25 +4222,28 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1500" b="1" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -4256,32 +4252,32 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="95000"/>
-        </a:schemeClr>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -4290,8 +4286,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -4299,62 +4309,72 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="247">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="25000"/>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" b="0" kern="1200" spc="100" baseline="0"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="phClr"/>
+        <a:schemeClr val="bg1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -4366,18 +4386,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <cs:styleClr val="auto"/>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -4385,7 +4409,10 @@
       </a:solidFill>
       <a:ln>
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
@@ -4396,93 +4423,62 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="ltUpDiag">
-        <a:fgClr>
-          <a:schemeClr val="phClr"/>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="lt1"/>
-        </a:bgClr>
-      </a:pattFill>
-    </cs:spPr>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="ltUpDiag">
-        <a:fgClr>
-          <a:schemeClr val="phClr"/>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="lt1"/>
-        </a:bgClr>
-      </a:pattFill>
-    </cs:spPr>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
-      <a:effectLst>
-        <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
-          <a:schemeClr val="phClr"/>
-        </a:outerShdw>
-      </a:effectLst>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="22225">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:round/>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -4502,104 +4498,90 @@
     </cs:spPr>
   </cs:dataPointWireframe>
   <cs:dataTable>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataTable>
   <cs:downBar>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="35000"/>
-          <a:lumOff val="65000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
   <cs:dropLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="79000">
-              <a:schemeClr val="phClr"/>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1">
-                <a:alpha val="60000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
   <cs:errorBar>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
-      <a:effectLst>
-        <a:glow rad="25400">
-          <a:schemeClr val="lt1"/>
-        </a:glow>
-      </a:effectLst>
     </cs:spPr>
   </cs:errorBar>
   <cs:floor>
@@ -4607,23 +4589,28 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="25000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4631,62 +4618,59 @@
     </cs:spPr>
   </cs:gridlineMajor>
   <cs:gridlineMinor>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="10000"/>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
   <cs:hiLoLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
   <cs:leaderLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -4695,67 +4679,57 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-            <a:tint val="50000"/>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -4764,25 +4738,28 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1500" b="1" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -4791,32 +4768,32 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="95000"/>
-        </a:schemeClr>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -4825,8 +4802,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -4834,62 +4825,72 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="247">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="25000"/>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" b="0" kern="1200" spc="100" baseline="0"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="phClr"/>
+        <a:schemeClr val="bg1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -4901,18 +4902,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <cs:styleClr val="auto"/>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -4920,7 +4925,10 @@
       </a:solidFill>
       <a:ln>
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
@@ -4931,93 +4939,62 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="ltUpDiag">
-        <a:fgClr>
-          <a:schemeClr val="phClr"/>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="lt1"/>
-        </a:bgClr>
-      </a:pattFill>
-    </cs:spPr>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="ltUpDiag">
-        <a:fgClr>
-          <a:schemeClr val="phClr"/>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="lt1"/>
-        </a:bgClr>
-      </a:pattFill>
-    </cs:spPr>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
-      <a:effectLst>
-        <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
-          <a:schemeClr val="phClr"/>
-        </a:outerShdw>
-      </a:effectLst>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="22225">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:round/>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -5037,104 +5014,90 @@
     </cs:spPr>
   </cs:dataPointWireframe>
   <cs:dataTable>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataTable>
   <cs:downBar>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="35000"/>
-          <a:lumOff val="65000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
   <cs:dropLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="79000">
-              <a:schemeClr val="phClr"/>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1">
-                <a:alpha val="60000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
   <cs:errorBar>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
-      <a:effectLst>
-        <a:glow rad="25400">
-          <a:schemeClr val="lt1"/>
-        </a:glow>
-      </a:effectLst>
     </cs:spPr>
   </cs:errorBar>
   <cs:floor>
@@ -5142,23 +5105,28 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="25000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5166,62 +5134,59 @@
     </cs:spPr>
   </cs:gridlineMajor>
   <cs:gridlineMinor>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="10000"/>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
   <cs:hiLoLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
   <cs:leaderLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -5230,67 +5195,57 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-            <a:tint val="50000"/>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -5299,25 +5254,28 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1500" b="1" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -5326,32 +5284,32 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="95000"/>
-        </a:schemeClr>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -5360,8 +5318,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -5369,8 +5341,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -5497,19 +5475,57 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>326572</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>430941</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>18552</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10150929" y="5837464"/>
+          <a:ext cx="6839905" cy="6182588"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="benchmark-quickSorting" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="benchmark-generalSorting" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="benchmark-insertSorting" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="benchmark-quickSorting" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5777,8 +5793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V10" sqref="V10"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y35" sqref="Y35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
